--- a/Models/MidSeismic 12Floor 9M/PF M.xlsx
+++ b/Models/MidSeismic 12Floor 9M/PF M.xlsx
@@ -268,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,6 +298,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -702,6 +705,10 @@
         <f>D14*B14</f>
         <v>2771.3663999999999</v>
       </c>
+      <c r="J2" s="10">
+        <f>I2+S2+AC2</f>
+        <v>3275.2512000000002</v>
+      </c>
       <c r="K2" s="9" t="s">
         <v>16</v>
       </c>
@@ -724,7 +731,7 @@
       </c>
       <c r="R2" s="5">
         <f>P14/Q14</f>
-        <v>1.3256717733431937</v>
+        <v>1.3147985612185553</v>
       </c>
       <c r="S2" s="8">
         <f>N14*L14</f>
@@ -752,7 +759,7 @@
       </c>
       <c r="AB2" s="5">
         <f>Z14/AA14</f>
-        <v>1.3291395044112384</v>
+        <v>1.3039917967054888</v>
       </c>
       <c r="AC2" s="8">
         <f>X14*V14</f>
@@ -770,7 +777,7 @@
         <v>75.585999999999999</v>
       </c>
       <c r="E3" s="1">
-        <f>C3/$C$2</f>
+        <f>C3/C$2</f>
         <v>0.97388324120959113</v>
       </c>
       <c r="F3" s="4">
@@ -791,16 +798,16 @@
         <v>61.688000000000002</v>
       </c>
       <c r="O3" s="1">
-        <f>M3/$C$2</f>
-        <v>0.79481530156030566</v>
+        <f>M3/M$2</f>
+        <v>0.80325008463762082</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P13" si="2">L3*O3</f>
-        <v>231.76814193498515</v>
+        <v>234.22772468033025</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" ref="Q3:Q13" si="3">L3*O3^2</f>
-        <v>184.21286562412695</v>
+        <v>188.1434396739526</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>17</v>
@@ -812,16 +819,16 @@
         <v>36.292000000000002</v>
       </c>
       <c r="Y3" s="1">
-        <f>W3/$C$2</f>
-        <v>0.46760207697164136</v>
+        <f>W3/W$2</f>
+        <v>0.47913393623341471</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" ref="Z3:Z13" si="4">V3*Y3</f>
-        <v>136.35276564493063</v>
+        <v>139.71545580566374</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" ref="AA3:AA13" si="5">V3*Y3^2</f>
-        <v>63.758836416397031</v>
+        <v>66.942416292813363</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -835,7 +842,7 @@
         <v>72.311000000000007</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E13" si="6">C4/$C$2</f>
+        <f t="shared" ref="E4:E13" si="6">C4/C$2</f>
         <v>0.93168670197003089</v>
       </c>
       <c r="F4" s="4">
@@ -856,16 +863,16 @@
         <v>38.064</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" ref="O4:O13" si="7">M4/$C$2</f>
-        <v>0.49043330369912258</v>
+        <f t="shared" ref="O4:O13" si="7">M4/M$2</f>
+        <v>0.49563790723716761</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="2"/>
-        <v>143.01035135866411</v>
+        <v>144.52801375035804</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="3"/>
-        <v>70.137039080001941</v>
+        <v>71.633562272372032</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>18</v>
@@ -877,16 +884,16 @@
         <v>15.698</v>
       </c>
       <c r="Y4" s="1">
-        <f t="shared" ref="Y4:Y13" si="8">W4/$C$2</f>
-        <v>0.20225993068171569</v>
+        <f t="shared" ref="Y4:Y13" si="8">W4/W$2</f>
+        <v>0.20724800316852596</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="4"/>
-        <v>58.978995786788275</v>
+        <v>60.433517723942153</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="5"/>
-        <v>11.929087599513</v>
+        <v>12.524725872736733</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -922,15 +929,15 @@
       </c>
       <c r="O5" s="1">
         <f t="shared" si="7"/>
-        <v>0.10949196655199515</v>
+        <v>0.11065392327925205</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="2"/>
-        <v>31.927857446561802</v>
+        <v>32.266684028229911</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="3"/>
-        <v>3.4958438996158141</v>
+        <v>3.5704351789356208</v>
       </c>
       <c r="U5" s="9" t="s">
         <v>19</v>
@@ -943,15 +950,15 @@
       </c>
       <c r="Y5" s="1">
         <f t="shared" si="8"/>
-        <v>0.77306636774767112</v>
+        <v>0.79213149382797543</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="4"/>
-        <v>225.42615283522102</v>
+        <v>230.98554360023775</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="5"/>
-        <v>174.26937716765568</v>
+        <v>182.97092370472328</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -987,15 +994,15 @@
       </c>
       <c r="O6" s="1">
         <f t="shared" si="7"/>
-        <v>0.28886913274837983</v>
+        <v>0.29193468579910936</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="2"/>
-        <v>84.234239109427534</v>
+        <v>85.128154379020259</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="3"/>
-        <v>24.332671599259992</v>
+        <v>24.851861001297355</v>
       </c>
       <c r="U6" s="9" t="s">
         <v>20</v>
@@ -1008,15 +1015,15 @@
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="8"/>
-        <v>0.99196010977542426</v>
+        <v>1.0164235263053667</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="4"/>
-        <v>289.25556801051363</v>
+        <v>296.38910027064486</v>
       </c>
       <c r="AA6" s="4">
         <f t="shared" si="5"/>
-        <v>286.92998499686178</v>
+        <v>301.25685445556371</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1052,15 +1059,15 @@
       </c>
       <c r="O7" s="1">
         <f t="shared" si="7"/>
-        <v>0.63749629572365452</v>
+        <v>0.64426156931170087</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="2"/>
-        <v>185.89391983301761</v>
+        <v>187.8666736112919</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="3"/>
-        <v>118.50668529109871</v>
+        <v>121.03527796218003</v>
       </c>
       <c r="U7" s="9" t="s">
         <v>21</v>
@@ -1073,15 +1080,15 @@
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="8"/>
-        <v>0.76013039052736009</v>
+        <v>0.77887649349792065</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="4"/>
-        <v>221.65402187777812</v>
+        <v>227.12038550399359</v>
       </c>
       <c r="AA7" s="4">
         <f t="shared" si="5"/>
-        <v>168.48595821191552</v>
+        <v>176.8987294632465</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1117,15 +1124,15 @@
       </c>
       <c r="O8" s="1">
         <f t="shared" si="7"/>
-        <v>0.86632394057696516</v>
+        <v>0.87551759160394804</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="2"/>
-        <v>252.62006107224315</v>
+        <v>255.30092971171138</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="3"/>
-        <v>218.8508067768993</v>
+        <v>223.52045511544637</v>
       </c>
       <c r="U8" s="9" t="s">
         <v>22</v>
@@ -1138,15 +1145,15 @@
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="8"/>
-        <v>0.19706750157834382</v>
+        <v>0.20192751996831473</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="4"/>
-        <v>57.464883460245083</v>
+        <v>58.882064822760604</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="5"/>
-        <v>11.324461012001192</v>
+        <v>11.889909320273594</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1182,15 +1189,15 @@
       </c>
       <c r="O9" s="1">
         <f t="shared" si="7"/>
-        <v>0.93740739309136356</v>
+        <v>0.94735539988020512</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="2"/>
-        <v>273.34799582544173</v>
+        <v>276.24883460506794</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="3"/>
-        <v>256.23843217347627</v>
+        <v>261.7058251737248</v>
       </c>
       <c r="U9" s="9" t="s">
         <v>23</v>
@@ -1203,15 +1210,15 @@
       </c>
       <c r="Y9" s="1">
         <f t="shared" si="8"/>
-        <v>0.35674435983662528</v>
+        <v>0.36554228001848305</v>
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="4"/>
-        <v>104.02665532835998</v>
+        <v>106.59212885338971</v>
       </c>
       <c r="AA9" s="4">
         <f t="shared" si="5"/>
-        <v>37.110922561061045</v>
+        <v>38.963929813092001</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1247,15 +1254,15 @@
       </c>
       <c r="O10" s="1">
         <f t="shared" si="7"/>
-        <v>0.89170628631801374</v>
+        <v>0.90116930128388761</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="2"/>
-        <v>260.0215530903327</v>
+        <v>262.78096825438155</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="3"/>
-        <v>231.86285346882286</v>
+        <v>236.81014155250446</v>
       </c>
       <c r="U10" s="9" t="s">
         <v>24</v>
@@ -1268,15 +1275,15 @@
       </c>
       <c r="Y10" s="1">
         <f t="shared" si="8"/>
-        <v>0.76747452102096303</v>
+        <v>0.78640174268928642</v>
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="4"/>
-        <v>223.79557032971275</v>
+        <v>229.31474816819585</v>
       </c>
       <c r="AA10" s="4">
         <f t="shared" si="5"/>
-        <v>171.75739814540955</v>
+        <v>180.33351758382406</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1312,15 +1319,15 @@
       </c>
       <c r="O11" s="1">
         <f t="shared" si="7"/>
-        <v>0.73054771752154923</v>
+        <v>0.73830047657491082</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="2"/>
-        <v>213.02771442928369</v>
+        <v>215.28841896924393</v>
       </c>
       <c r="Q11" s="4">
         <f t="shared" si="3"/>
-        <v>155.62691054514559</v>
+        <v>158.94754232605186</v>
       </c>
       <c r="U11" s="9" t="s">
         <v>25</v>
@@ -1333,15 +1340,15 @@
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="8"/>
-        <v>0.90243902439024382</v>
+        <v>0.92469469932008708</v>
       </c>
       <c r="Z11" s="4">
         <f t="shared" si="4"/>
-        <v>263.15121951219504</v>
+        <v>269.6409743217373</v>
       </c>
       <c r="AA11" s="4">
         <f t="shared" si="5"/>
-        <v>237.47792980368814</v>
+        <v>249.3355796748142</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -1377,15 +1384,15 @@
       </c>
       <c r="O12" s="1">
         <f t="shared" si="7"/>
-        <v>0.48101477845206342</v>
+        <v>0.48611943019349457</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="2"/>
-        <v>140.26390939662164</v>
+        <v>141.75242584442299</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="3"/>
-        <v>67.469013303236252</v>
+        <v>68.908608480036492</v>
       </c>
       <c r="U12" s="9" t="s">
         <v>26</v>
@@ -1398,15 +1405,15 @@
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="8"/>
-        <v>0.72603816370968788</v>
+        <v>0.74394349462010689</v>
       </c>
       <c r="Z12" s="4">
         <f t="shared" si="4"/>
-        <v>211.71272853774491</v>
+        <v>216.93392303122312</v>
       </c>
       <c r="AA12" s="4">
         <f t="shared" si="5"/>
-        <v>153.71152066151194</v>
+        <v>161.38658080149739</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1442,15 +1449,15 @@
       </c>
       <c r="O13" s="1">
         <f t="shared" si="7"/>
-        <v>0.20079110458299512</v>
+        <v>0.20292195109247635</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="2"/>
-        <v>58.550686096401357</v>
+        <v>59.172040938566084</v>
       </c>
       <c r="Q13" s="4">
         <f t="shared" si="3"/>
-        <v>11.756456935388645</v>
+        <v>12.007305997377715</v>
       </c>
       <c r="U13" s="9" t="s">
         <v>27</v>
@@ -1463,15 +1470,15 @@
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="8"/>
-        <v>0.33895094893896638</v>
+        <v>0.34731005346887578</v>
       </c>
       <c r="Z13" s="4">
         <f t="shared" si="4"/>
-        <v>98.838096710602571</v>
+        <v>101.27561159152414</v>
       </c>
       <c r="AA13" s="4">
         <f t="shared" si="5"/>
-        <v>33.501266671380073</v>
+        <v>35.174038076945351</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -1505,11 +1512,11 @@
       </c>
       <c r="P14" s="4">
         <f>SUM(P2:P13)</f>
-        <v>2166.2664295929803</v>
+        <v>2186.1608687726239</v>
       </c>
       <c r="Q14" s="4">
         <f>SUM(Q2:Q13)</f>
-        <v>1634.0895786970723</v>
+        <v>1662.7344547338796</v>
       </c>
       <c r="U14" s="9" t="s">
         <v>28</v>
@@ -1523,11 +1530,11 @@
       </c>
       <c r="Z14" s="4">
         <f>SUM(Z2:Z13)</f>
-        <v>2182.2566580340922</v>
+        <v>2228.8834536933127</v>
       </c>
       <c r="AA14" s="4">
         <f>SUM(AA2:AA13)</f>
-        <v>1641.8567432473949</v>
+        <v>1709.2772050595299</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +1918,7 @@
       </c>
       <c r="D3" s="4">
         <f>B3/總表!R$2</f>
-        <v>6.5687451261328533</v>
+        <v>6.6230677891291769</v>
       </c>
       <c r="E3" s="4">
         <f>C3/總表!S$2</f>
@@ -1927,7 +1934,7 @@
       </c>
       <c r="D4" s="4">
         <f>B4/總表!R$2</f>
-        <v>6.8983893176946411</v>
+        <v>6.9554380950374739</v>
       </c>
       <c r="E4" s="4">
         <f>C4/總表!S$2</f>
@@ -1943,7 +1950,7 @@
       </c>
       <c r="D5" s="4">
         <f>B5/總表!R$2</f>
-        <v>7.6979839242289581</v>
+        <v>7.7616452443802544</v>
       </c>
       <c r="E5" s="4">
         <f>C5/總表!S$2</f>
@@ -1959,7 +1966,7 @@
       </c>
       <c r="D6" s="4">
         <f>B6/總表!R$2</f>
-        <v>31.767290249980803</v>
+        <v>32.030001585162729</v>
       </c>
       <c r="E6" s="4">
         <f>C6/總表!S$2</f>
@@ -1975,7 +1982,7 @@
       </c>
       <c r="D7" s="4">
         <f>B7/總表!R$2</f>
-        <v>34.255839879185245</v>
+        <v>34.53913119429653</v>
       </c>
       <c r="E7" s="4">
         <f>C7/總表!S$2</f>
@@ -1991,7 +1998,7 @@
       </c>
       <c r="D8" s="4">
         <f>B8/總表!R$2</f>
-        <v>44.936462552694096</v>
+        <v>45.308081220281828</v>
       </c>
       <c r="E8" s="4">
         <f>C8/總表!S$2</f>
@@ -2007,7 +2014,7 @@
       </c>
       <c r="D9" s="4">
         <f>B9/總表!R$2</f>
-        <v>58.571059263173119</v>
+        <v>59.055434262141027</v>
       </c>
       <c r="E9" s="4">
         <f>C9/總表!S$2</f>
@@ -2023,7 +2030,7 @@
       </c>
       <c r="D10" s="4">
         <f>B10/總表!R$2</f>
-        <v>84.905632195927367</v>
+        <v>85.607790668467246</v>
       </c>
       <c r="E10" s="4">
         <f>C10/總表!S$2</f>
@@ -2039,7 +2046,7 @@
       </c>
       <c r="D11" s="4">
         <f>B11/總表!R$2</f>
-        <v>84.911666872203099</v>
+        <v>85.613875250726437</v>
       </c>
       <c r="E11" s="4">
         <f>C11/總表!S$2</f>
@@ -2055,7 +2062,7 @@
       </c>
       <c r="D12" s="4">
         <f>B12/總表!R$2</f>
-        <v>84.917701548478831</v>
+        <v>85.619959832985629</v>
       </c>
       <c r="E12" s="4">
         <f>C12/總表!S$2</f>
@@ -2071,7 +2078,7 @@
       </c>
       <c r="D13" s="4">
         <f>B13/總表!R$2</f>
-        <v>86.544046804788252</v>
+        <v>87.259754751837548</v>
       </c>
       <c r="E13" s="4">
         <f>C13/總表!S$2</f>
@@ -2087,7 +2094,7 @@
       </c>
       <c r="D14" s="4">
         <f>B14/總表!R$2</f>
-        <v>88.547559328330848</v>
+        <v>89.279836061888886</v>
       </c>
       <c r="E14" s="4">
         <f>C14/總表!S$2</f>
@@ -2103,7 +2110,7 @@
       </c>
       <c r="D15" s="4">
         <f>B15/總表!R$2</f>
-        <v>87.513366681577494</v>
+        <v>88.237090777220061</v>
       </c>
       <c r="E15" s="4">
         <f>C15/總表!S$2</f>
@@ -2188,7 +2195,7 @@
       </c>
       <c r="D3" s="4">
         <f>B3/總表!AB$2</f>
-        <v>-2.3135269020253189</v>
+        <v>-2.3581436691311484</v>
       </c>
       <c r="E3" s="4">
         <f>C3/總表!AC$2</f>
@@ -2204,7 +2211,7 @@
       </c>
       <c r="D4" s="4">
         <f>B4/總表!AB$2</f>
-        <v>-2.4203629410781953</v>
+        <v>-2.4670400597056599</v>
       </c>
       <c r="E4" s="4">
         <f>C4/總表!AC$2</f>
@@ -2220,7 +2227,7 @@
       </c>
       <c r="D5" s="4">
         <f>B5/總表!AB$2</f>
-        <v>-2.8138506060405506</v>
+        <v>-2.8681162024554459</v>
       </c>
       <c r="E5" s="4">
         <f>C5/總表!AC$2</f>
@@ -2236,7 +2243,7 @@
       </c>
       <c r="D6" s="4">
         <f>B6/總表!AB$2</f>
-        <v>-7.4890558643122036</v>
+        <v>-7.6334836040752689</v>
       </c>
       <c r="E6" s="4">
         <f>C6/總表!AC$2</f>
@@ -2252,7 +2259,7 @@
       </c>
       <c r="D7" s="4">
         <f>B7/總表!AB$2</f>
-        <v>-7.7004708430013453</v>
+        <v>-7.8489757572544079</v>
       </c>
       <c r="E7" s="4">
         <f>C7/總表!AC$2</f>
@@ -2268,7 +2275,7 @@
       </c>
       <c r="D8" s="4">
         <f>B8/總表!AB$2</f>
-        <v>-7.7380891666115135</v>
+        <v>-7.8873195567524759</v>
       </c>
       <c r="E8" s="4">
         <f>C8/總表!AC$2</f>
@@ -2284,7 +2291,7 @@
       </c>
       <c r="D9" s="4">
         <f>B9/總表!AB$2</f>
-        <v>-7.931447349967776</v>
+        <v>-8.0844066861725423</v>
       </c>
       <c r="E9" s="4">
         <f>C9/總表!AC$2</f>
@@ -2300,7 +2307,7 @@
       </c>
       <c r="D10" s="4">
         <f>B10/總表!AB$2</f>
-        <v>-11.374276326770332</v>
+        <v>-11.593631216235675</v>
       </c>
       <c r="E10" s="4">
         <f>C10/總表!AC$2</f>
@@ -2316,7 +2323,7 @@
       </c>
       <c r="D11" s="4">
         <f>B11/總表!AB$2</f>
-        <v>-12.181565551444532</v>
+        <v>-12.416489153464202</v>
       </c>
       <c r="E11" s="4">
         <f>C11/總表!AC$2</f>
@@ -2332,7 +2339,7 @@
       </c>
       <c r="D12" s="4">
         <f>B12/總表!AB$2</f>
-        <v>-13.746487813627512</v>
+        <v>-14.011591212583809</v>
       </c>
       <c r="E12" s="4">
         <f>C12/總表!AC$2</f>
@@ -2348,7 +2355,7 @@
       </c>
       <c r="D13" s="4">
         <f>B13/總表!AB$2</f>
-        <v>-22.184277799388148</v>
+        <v>-22.612105440000338</v>
       </c>
       <c r="E13" s="4">
         <f>C13/總表!AC$2</f>
@@ -2364,7 +2371,7 @@
       </c>
       <c r="D14" s="4">
         <f>B14/總表!AB$2</f>
-        <v>-22.883226252065064</v>
+        <v>-23.324533234674433</v>
       </c>
       <c r="E14" s="4">
         <f>C14/總表!AC$2</f>
@@ -2380,7 +2387,7 @@
       </c>
       <c r="D15" s="4">
         <f>B15/總表!AB$2</f>
-        <v>-22.883226252065064</v>
+        <v>-23.324533234674433</v>
       </c>
       <c r="E15" s="4">
         <f>C15/總表!AC$2</f>
@@ -2396,7 +2403,7 @@
       </c>
       <c r="D16" s="4">
         <f>B16/總表!AB$2</f>
-        <v>-22.883226252065064</v>
+        <v>-23.324533234674433</v>
       </c>
       <c r="E16" s="4">
         <f>C16/總表!AC$2</f>

--- a/Models/MidSeismic 12Floor 9M/PF M.xlsx
+++ b/Models/MidSeismic 12Floor 9M/PF M.xlsx
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,7 @@
         <v>291.60000000000002</v>
       </c>
       <c r="C2" s="2">
-        <v>77.613</v>
+        <v>78.965000000000003</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -699,15 +699,15 @@
       </c>
       <c r="H2" s="5">
         <f>F14/G14</f>
-        <v>1.3047676559099342</v>
+        <v>1.3189448529008097</v>
       </c>
       <c r="I2" s="8">
         <f>D14*B14</f>
-        <v>2771.3663999999999</v>
+        <v>2736.3744000000002</v>
       </c>
       <c r="J2" s="10">
         <f>I2+S2+AC2</f>
-        <v>3275.2512000000002</v>
+        <v>3285.7487999999998</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>16</v>
@@ -716,7 +716,7 @@
         <v>291.60000000000002</v>
       </c>
       <c r="M2" s="2">
-        <v>76.798000000000002</v>
+        <v>74.742999999999995</v>
       </c>
       <c r="O2" s="1">
         <v>1</v>
@@ -731,11 +731,11 @@
       </c>
       <c r="R2" s="5">
         <f>P14/Q14</f>
-        <v>1.3147985612185553</v>
+        <v>1.2802401647372939</v>
       </c>
       <c r="S2" s="8">
         <f>N14*L14</f>
-        <v>367.41599999999994</v>
+        <v>416.40479999999997</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>16</v>
@@ -744,7 +744,7 @@
         <v>291.60000000000002</v>
       </c>
       <c r="W2" s="2">
-        <v>75.745000000000005</v>
+        <v>75.718000000000004</v>
       </c>
       <c r="Y2" s="1">
         <v>1</v>
@@ -759,11 +759,11 @@
       </c>
       <c r="AB2" s="5">
         <f>Z14/AA14</f>
-        <v>1.3039917967054888</v>
+        <v>1.3095464149762013</v>
       </c>
       <c r="AC2" s="8">
         <f>X14*V14</f>
-        <v>136.46879999999999</v>
+        <v>132.96959999999999</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -774,19 +774,19 @@
         <v>291.60000000000002</v>
       </c>
       <c r="C3" s="2">
-        <v>75.585999999999999</v>
+        <v>76.713999999999999</v>
       </c>
       <c r="E3" s="1">
         <f>C3/C$2</f>
-        <v>0.97388324120959113</v>
+        <v>0.97149369974039124</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F5" si="0">B3*E3</f>
-        <v>283.98435313671678</v>
+        <v>283.28756284429812</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G5" si="1">B3*E3^2</f>
-        <v>276.56760228559483</v>
+        <v>275.21208251804575</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>17</v>
@@ -795,19 +795,19 @@
         <v>291.60000000000002</v>
       </c>
       <c r="M3" s="2">
-        <v>61.688000000000002</v>
+        <v>59.99</v>
       </c>
       <c r="O3" s="1">
         <f>M3/M$2</f>
-        <v>0.80325008463762082</v>
+        <v>0.80261696747521516</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P13" si="2">L3*O3</f>
-        <v>234.22772468033025</v>
+        <v>234.04310771577275</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" ref="Q3:Q13" si="3">L3*O3^2</f>
-        <v>188.1434396739526</v>
+        <v>187.84696937330867</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>17</v>
@@ -816,19 +816,19 @@
         <v>291.60000000000002</v>
       </c>
       <c r="W3" s="2">
-        <v>36.292000000000002</v>
+        <v>37.485999999999997</v>
       </c>
       <c r="Y3" s="1">
         <f>W3/W$2</f>
-        <v>0.47913393623341471</v>
+        <v>0.49507382656699855</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" ref="Z3:Z13" si="4">V3*Y3</f>
-        <v>139.71545580566374</v>
+        <v>144.3635278269368</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" ref="AA3:AA13" si="5">V3*Y3^2</f>
-        <v>66.942416292813363</v>
+        <v>71.470604137992979</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -839,19 +839,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="C4" s="2">
-        <v>72.311000000000007</v>
+        <v>73.09</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E13" si="6">C4/C$2</f>
-        <v>0.93168670197003089</v>
+        <v>0.9255999493446464</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>271.67984229446091</v>
+        <v>269.90494522889878</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="1"/>
-        <v>253.12049625906442</v>
+        <v>249.82400363173829</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>18</v>
@@ -860,19 +860,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="M4" s="2">
-        <v>38.064</v>
+        <v>36.56</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ref="O4:O13" si="7">M4/M$2</f>
-        <v>0.49563790723716761</v>
+        <v>0.48914279598089461</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="2"/>
-        <v>144.52801375035804</v>
+        <v>142.63403930802883</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="3"/>
-        <v>71.633562272372032</v>
+        <v>69.768412789178043</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>18</v>
@@ -881,19 +881,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="W4" s="2">
-        <v>15.698</v>
+        <v>14.557</v>
       </c>
       <c r="Y4" s="1">
         <f t="shared" ref="Y4:Y13" si="8">W4/W$2</f>
-        <v>0.20724800316852596</v>
+        <v>0.19225283287989645</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="4"/>
-        <v>60.433517723942153</v>
+        <v>56.060926067777785</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="5"/>
-        <v>12.524725872736733</v>
+        <v>10.777871850400714</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -904,19 +904,19 @@
         <v>291.60000000000014</v>
       </c>
       <c r="C5" s="2">
-        <v>67.694000000000003</v>
+        <v>68.033000000000001</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="6"/>
-        <v>0.87219924497184753</v>
+        <v>0.86155891850819977</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>254.33329983379085</v>
+        <v>251.23058063699116</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>221.82931208623089</v>
+        <v>216.44994734979318</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>19</v>
@@ -925,19 +925,19 @@
         <v>291.60000000000014</v>
       </c>
       <c r="M5" s="2">
-        <v>8.4979999999999993</v>
+        <v>7.2910000000000004</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="7"/>
-        <v>0.11065392327925205</v>
+        <v>9.7547596430434966E-2</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="2"/>
-        <v>32.266684028229911</v>
+        <v>28.444879119114848</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="3"/>
-        <v>3.5704351789356208</v>
+        <v>2.7747295888239218</v>
       </c>
       <c r="U5" s="9" t="s">
         <v>19</v>
@@ -946,19 +946,19 @@
         <v>291.60000000000014</v>
       </c>
       <c r="W5" s="2">
-        <v>60</v>
+        <v>59.697000000000003</v>
       </c>
       <c r="Y5" s="1">
         <f t="shared" si="8"/>
-        <v>0.79213149382797543</v>
+        <v>0.78841226656805519</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="4"/>
-        <v>230.98554360023775</v>
+        <v>229.90101693124501</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="5"/>
-        <v>182.97092370472328</v>
+        <v>181.2567818450637</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -969,19 +969,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="C6" s="2">
-        <v>61.789000000000001</v>
+        <v>61.619</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="6"/>
-        <v>0.79611662994601418</v>
+        <v>0.7803330589501678</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ref="F6:F13" si="9">B6*E6</f>
-        <v>232.14760929225767</v>
+        <v>227.54511998986885</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" ref="G6:G13" si="10">B6*E6^2</f>
-        <v>184.81657235977619</v>
+        <v>177.56097953087732</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>20</v>
@@ -990,19 +990,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="M6" s="2">
-        <v>22.42</v>
+        <v>23.161000000000001</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="7"/>
-        <v>0.29193468579910936</v>
+        <v>0.30987517225693378</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="2"/>
-        <v>85.128154379020259</v>
+        <v>90.359600230121856</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="3"/>
-        <v>24.851861001297355</v>
+        <v>28.000196686376686</v>
       </c>
       <c r="U6" s="9" t="s">
         <v>20</v>
@@ -1011,19 +1011,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="W6" s="2">
-        <v>76.989000000000004</v>
+        <v>77.882999999999996</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="8"/>
-        <v>1.0164235263053667</v>
+        <v>1.0285929369502627</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="4"/>
-        <v>296.38910027064486</v>
+        <v>299.93770041469651</v>
       </c>
       <c r="AA6" s="4">
         <f t="shared" si="5"/>
-        <v>301.25685445556371</v>
+        <v>308.51380017166071</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1034,19 +1034,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="C7" s="2">
-        <v>54.704999999999998</v>
+        <v>53.984000000000002</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="6"/>
-        <v>0.70484326079393911</v>
+        <v>0.68364465269423158</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="9"/>
-        <v>205.53229484751259</v>
+        <v>199.35078072563786</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="10"/>
-        <v>144.86805289878208</v>
+        <v>136.28509525350262</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>21</v>
@@ -1055,19 +1055,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="M7" s="2">
-        <v>49.478000000000002</v>
+        <v>49.764000000000003</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="7"/>
-        <v>0.64426156931170087</v>
+        <f>M7/M$2</f>
+        <v>0.66580147973723303</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="2"/>
-        <v>187.8666736112919</v>
+        <f>L7*O7</f>
+        <v>194.14771149137709</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="3"/>
-        <v>121.03527796218003</v>
+        <v>129.26383359855626</v>
       </c>
       <c r="U7" s="9" t="s">
         <v>21</v>
@@ -1076,19 +1076,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="W7" s="2">
-        <v>58.996000000000002</v>
+        <v>60.832999999999998</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="8"/>
-        <v>0.77887649349792065</v>
+        <v>0.80341530415489049</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="4"/>
-        <v>227.12038550399359</v>
+        <v>234.27590269156599</v>
       </c>
       <c r="AA7" s="4">
         <f t="shared" si="5"/>
-        <v>176.8987294632465</v>
+        <v>188.22084561710602</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1099,19 +1099,19 @@
         <v>291.60000000000014</v>
       </c>
       <c r="C8" s="2">
-        <v>46.658999999999999</v>
+        <v>45.354999999999997</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="6"/>
-        <v>0.60117506087897643</v>
+        <v>0.57436839105933002</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="9"/>
-        <v>175.30264775230961</v>
+        <v>167.48582283290071</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="10"/>
-        <v>105.38757993474049</v>
+        <v>96.198562585781175</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>22</v>
@@ -1120,19 +1120,19 @@
         <v>291.60000000000014</v>
       </c>
       <c r="M8" s="2">
-        <v>67.238</v>
+        <v>67.988</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="7"/>
-        <v>0.87551759160394804</v>
+        <f>M8/M$2</f>
+        <v>0.90962364368569637</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="2"/>
-        <v>255.30092971171138</v>
+        <v>265.24625449874918</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="3"/>
-        <v>223.52045511544637</v>
+        <v>241.27426449113577</v>
       </c>
       <c r="U8" s="9" t="s">
         <v>22</v>
@@ -1141,19 +1141,19 @@
         <v>291.60000000000014</v>
       </c>
       <c r="W8" s="2">
-        <v>15.295</v>
+        <v>16.47</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="8"/>
-        <v>0.20192751996831473</v>
+        <v>0.21751763121054438</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="4"/>
-        <v>58.882064822760604</v>
+        <v>63.428141260994771</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="5"/>
-        <v>11.889909320273594</v>
+        <v>13.796739039179373</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1164,19 +1164,19 @@
         <v>291.60000000000014</v>
       </c>
       <c r="C9" s="2">
-        <v>38.771999999999998</v>
+        <v>36.386000000000003</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="6"/>
-        <v>0.49955548683854506</v>
+        <v>0.4607864243652251</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="9"/>
-        <v>145.6703799621198</v>
+        <v>134.36532134489971</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="10"/>
-        <v>72.770437579932604</v>
+        <v>61.913715981200788</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>23</v>
@@ -1185,19 +1185,19 @@
         <v>291.60000000000014</v>
       </c>
       <c r="M9" s="2">
-        <v>72.754999999999995</v>
+        <v>74.353999999999999</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="7"/>
-        <v>0.94735539988020512</v>
+        <v>0.9947954992440764</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="2"/>
-        <v>276.24883460506794</v>
+        <v>290.0823675795728</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="3"/>
-        <v>261.7058251737248</v>
+        <v>288.5726336782248</v>
       </c>
       <c r="U9" s="9" t="s">
         <v>23</v>
@@ -1206,19 +1206,19 @@
         <v>291.60000000000014</v>
       </c>
       <c r="W9" s="2">
-        <v>27.687999999999999</v>
+        <v>32.262</v>
       </c>
       <c r="Y9" s="1">
         <f t="shared" si="8"/>
-        <v>0.36554228001848305</v>
+        <v>0.42608098470641059</v>
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="4"/>
-        <v>106.59212885338971</v>
+        <v>124.24521514038939</v>
       </c>
       <c r="AA9" s="4">
         <f t="shared" si="5"/>
-        <v>38.963929813092001</v>
+        <v>52.938523612076942</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1229,19 +1229,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="C10" s="2">
-        <v>30.411000000000001</v>
+        <v>28.69</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="6"/>
-        <v>0.39182868849290714</v>
+        <v>0.36332552396631418</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="9"/>
-        <v>114.25724556453169</v>
+        <v>105.94572278857719</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="10"/>
-        <v>44.769266680362485</v>
+        <v>38.49278524414968</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>24</v>
@@ -1250,19 +1250,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="M10" s="2">
-        <v>69.207999999999998</v>
+        <v>69.661000000000001</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="7"/>
-        <v>0.90116930128388761</v>
+        <v>0.93200701068996439</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="2"/>
-        <v>262.78096825438155</v>
+        <v>271.77324431719353</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="3"/>
-        <v>236.81014155250446</v>
+        <v>253.29456902158091</v>
       </c>
       <c r="U10" s="9" t="s">
         <v>24</v>
@@ -1271,19 +1271,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="W10" s="2">
-        <v>59.566000000000003</v>
+        <v>59.18</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" si="8"/>
-        <v>0.78640174268928642</v>
+        <v>0.78158429963813092</v>
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="4"/>
-        <v>229.31474816819585</v>
+        <v>227.90998177447889</v>
       </c>
       <c r="AA10" s="4">
         <f t="shared" si="5"/>
-        <v>180.33351758382406</v>
+        <v>178.13086348574527</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1294,19 +1294,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="C11" s="2">
-        <v>21.707999999999998</v>
+        <v>20.782</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="6"/>
-        <v>0.27969541185110741</v>
+        <v>0.26317988982460583</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="9"/>
-        <v>81.559182095782901</v>
+        <v>76.74325587285503</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="10"/>
-        <v>22.811729026519462</v>
+        <v>20.197281625399523</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>25</v>
@@ -1315,19 +1315,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="M11" s="2">
-        <v>56.7</v>
+        <v>57.241</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="7"/>
-        <v>0.73830047657491082</v>
+        <v>0.76583760352140007</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="2"/>
-        <v>215.28841896924393</v>
+        <v>223.31824518684019</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" si="3"/>
-        <v>158.94754232605186</v>
+        <f>L11*O11^2</f>
+        <v>171.02550971649413</v>
       </c>
       <c r="U11" s="9" t="s">
         <v>25</v>
@@ -1336,19 +1336,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="W11" s="2">
-        <v>70.040999999999997</v>
+        <v>67.198999999999998</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="8"/>
-        <v>0.92469469932008708</v>
+        <v>0.88749042499801889</v>
       </c>
       <c r="Z11" s="4">
         <f t="shared" si="4"/>
-        <v>269.6409743217373</v>
+        <v>258.7922079294222</v>
       </c>
       <c r="AA11" s="4">
         <f t="shared" si="5"/>
-        <v>249.3355796748142</v>
+        <v>229.67560660145861</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -1359,19 +1359,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="C12" s="2">
-        <v>13.007999999999999</v>
+        <v>12.802</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="6"/>
-        <v>0.16760078852769508</v>
+        <v>0.16212245931741909</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="9"/>
-        <v>48.872389934675873</v>
+        <v>47.274909136959394</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="10"/>
-        <v>8.1910510902846649</v>
+        <v>7.6643245332913823</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>26</v>
@@ -1380,19 +1380,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="M12" s="2">
-        <v>37.332999999999998</v>
+        <v>38.457999999999998</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="7"/>
-        <v>0.48611943019349457</v>
+        <v>0.51453647833241911</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="2"/>
-        <v>141.75242584442299</v>
+        <v>150.03883708173336</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="3"/>
-        <v>68.908608480036492</v>
+        <v>77.200454845126657</v>
       </c>
       <c r="U12" s="9" t="s">
         <v>26</v>
@@ -1401,19 +1401,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="W12" s="2">
-        <v>56.35</v>
+        <v>54.167000000000002</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="8"/>
-        <v>0.74394349462010689</v>
+        <v>0.71537811352650627</v>
       </c>
       <c r="Z12" s="4">
         <f t="shared" si="4"/>
-        <v>216.93392303122312</v>
+        <v>208.60425790432916</v>
       </c>
       <c r="AA12" s="4">
         <f t="shared" si="5"/>
-        <v>161.38658080149739</v>
+        <v>149.23092049319578</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1424,19 +1424,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="C13" s="2">
-        <v>5.1159999999999997</v>
+        <v>5.3049999999999997</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="6"/>
-        <v>6.5916792289951426E-2</v>
+        <v>6.7181662761983146E-2</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="9"/>
-        <v>19.221336631749828</v>
+        <v>19.590172861394279</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="10"/>
-        <v>1.2670088542902882</v>
+        <v>1.3161003866231449</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>27</v>
@@ -1445,19 +1445,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="M13" s="2">
-        <v>15.584</v>
+        <v>16.826000000000001</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="7"/>
-        <v>0.20292195109247635</v>
+        <v>0.22511807125750907</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="2"/>
-        <v>59.172040938566084</v>
+        <v>65.644429578689625</v>
       </c>
       <c r="Q13" s="4">
         <f t="shared" si="3"/>
-        <v>12.007305997377715</v>
+        <v>14.777747375553988</v>
       </c>
       <c r="U13" s="9" t="s">
         <v>27</v>
@@ -1466,19 +1466,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="W13" s="2">
-        <v>26.306999999999999</v>
+        <v>26.184999999999999</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="8"/>
-        <v>0.34731005346887578</v>
+        <v>0.34582265775641191</v>
       </c>
       <c r="Z13" s="4">
         <f t="shared" si="4"/>
-        <v>101.27561159152414</v>
+        <v>100.84188700176968</v>
       </c>
       <c r="AA13" s="4">
         <f t="shared" si="5"/>
-        <v>35.174038076945351</v>
+        <v>34.87340937612376</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -1490,15 +1490,15 @@
         <v>3499.2</v>
       </c>
       <c r="D14" s="2">
-        <v>0.79200000000000004</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="F14" s="4">
         <f>SUM(F2:F13)</f>
-        <v>2124.1605813459082</v>
+        <v>2074.3241942632812</v>
       </c>
       <c r="G14" s="4">
         <f>SUM(G2:G13)</f>
-        <v>1627.9991090555784</v>
+        <v>1572.7148786404032</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>28</v>
@@ -1508,15 +1508,15 @@
         <v>3499.2</v>
       </c>
       <c r="N14" s="2">
-        <v>0.105</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="P14" s="4">
         <f>SUM(P2:P13)</f>
-        <v>2186.1608687726239</v>
+        <v>2247.3327161071938</v>
       </c>
       <c r="Q14" s="4">
         <f>SUM(Q2:Q13)</f>
-        <v>1662.7344547338796</v>
+        <v>1755.3993211643599</v>
       </c>
       <c r="U14" s="9" t="s">
         <v>28</v>
@@ -1526,15 +1526,15 @@
         <v>3499.2</v>
       </c>
       <c r="X14" s="2">
-        <v>3.9E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="Z14" s="4">
         <f>SUM(Z2:Z13)</f>
-        <v>2228.8834536933127</v>
+        <v>2239.9607649436057</v>
       </c>
       <c r="AA14" s="4">
         <f>SUM(AA2:AA13)</f>
-        <v>1709.2772050595299</v>
+        <v>1710.4859662300041</v>
       </c>
     </row>
   </sheetData>
@@ -1663,11 +1663,11 @@
       </c>
       <c r="D3" s="4">
         <f>B3/總表!H$2</f>
-        <v>30.282019807155137</v>
+        <v>29.956521618854524</v>
       </c>
       <c r="E3" s="4">
         <f>C3/總表!I$2</f>
-        <v>7.7123328044967285E-2</v>
+        <v>7.8109559861399072E-2</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -1679,11 +1679,11 @@
       </c>
       <c r="D4" s="4">
         <f>B4/總表!H$2</f>
-        <v>91.241532130849933</v>
+        <v>90.260786672142245</v>
       </c>
       <c r="E4" s="4">
         <f>C4/總表!I$2</f>
-        <v>0.14905261173693959</v>
+        <v>0.15095865536528918</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -1695,11 +1695,11 @@
       </c>
       <c r="D5" s="4">
         <f>B5/總表!H$2</f>
-        <v>99.511970128850763</v>
+        <v>98.442326617703202</v>
       </c>
       <c r="E5" s="4">
         <f>C5/總表!I$2</f>
-        <v>0.1529558126994684</v>
+        <v>0.15491176938360479</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1711,11 +1711,11 @@
       </c>
       <c r="D6" s="4">
         <f>B6/總表!H$2</f>
-        <v>155.13106803589559</v>
+        <v>153.46358079705254</v>
       </c>
       <c r="E6" s="4">
         <f>C6/總表!I$2</f>
-        <v>0.16323402780664442</v>
+        <v>0.16532141946657591</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -1727,11 +1727,11 @@
       </c>
       <c r="D7" s="4">
         <f>B7/總表!H$2</f>
-        <v>94.40914590582328</v>
+        <v>93.394352105837299</v>
       </c>
       <c r="E7" s="4">
         <f>C7/總表!I$2</f>
-        <v>1.6033607104423292E-3</v>
+        <v>1.6238640443354535E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1781,11 +1781,11 @@
       </c>
       <c r="D2" s="4">
         <f>B2/總表!H$2</f>
-        <v>30.108808891804543</v>
+        <v>29.785172529085564</v>
       </c>
       <c r="E2" s="4">
         <f>C2/總表!I$2</f>
-        <v>7.7080461103952197E-2</v>
+        <v>7.8066144749782768E-2</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -1797,11 +1797,11 @@
       </c>
       <c r="D3" s="4">
         <f>B3/總表!H$2</f>
-        <v>90.176974779425294</v>
+        <v>89.207672133694984</v>
       </c>
       <c r="E3" s="4">
         <f>C3/總表!I$2</f>
-        <v>0.14898113075196409</v>
+        <v>0.15088626030122193</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -1813,11 +1813,11 @@
       </c>
       <c r="D4" s="4">
         <f>B4/總表!H$2</f>
-        <v>98.460441917076395</v>
+        <v>97.402101170079277</v>
       </c>
       <c r="E4" s="4">
         <f>C4/總表!I$2</f>
-        <v>0.15290150735752589</v>
+        <v>0.15485676959994948</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -1829,11 +1829,11 @@
       </c>
       <c r="D5" s="4">
         <f>B5/總表!H$2</f>
-        <v>153.33841170401496</v>
+        <v>151.69019353612521</v>
       </c>
       <c r="E5" s="4">
         <f>C5/總表!I$2</f>
-        <v>0.16336793287239104</v>
+        <v>0.16545703687331675</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1845,11 +1845,11 @@
       </c>
       <c r="D6" s="4">
         <f>B6/總表!H$2</f>
-        <v>93.018860063142014</v>
+        <v>92.01901029680684</v>
       </c>
       <c r="E6" s="4">
         <f>C6/總表!I$2</f>
-        <v>2.2017298037531234E-3</v>
+        <v>2.2298849163330864E-3</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -1918,11 +1918,11 @@
       </c>
       <c r="D3" s="4">
         <f>B3/總表!R$2</f>
-        <v>6.6230677891291769</v>
+        <v>6.8018487779493215</v>
       </c>
       <c r="E3" s="4">
         <f>C3/總表!S$2</f>
-        <v>0.61103517538702734</v>
+        <v>0.53914868416502404</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -1934,11 +1934,11 @@
       </c>
       <c r="D4" s="4">
         <f>B4/總表!R$2</f>
-        <v>6.9554380950374739</v>
+        <v>7.1431909823549082</v>
       </c>
       <c r="E4" s="4">
         <f>C4/總表!S$2</f>
-        <v>0.63688679861519382</v>
+        <v>0.56195893995458268</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -1950,11 +1950,11 @@
       </c>
       <c r="D5" s="4">
         <f>B5/總表!R$2</f>
-        <v>7.7616452443802544</v>
+        <v>7.9711606314851657</v>
       </c>
       <c r="E5" s="4">
         <f>C5/總表!S$2</f>
-        <v>0.67815092429289969</v>
+        <v>0.5983684626113821</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1966,11 +1966,11 @@
       </c>
       <c r="D6" s="4">
         <f>B6/總表!R$2</f>
-        <v>32.030001585162729</v>
+        <v>32.894609277191059</v>
       </c>
       <c r="E6" s="4">
         <f>C6/總表!S$2</f>
-        <v>1.2504643238182336</v>
+        <v>1.1033508739572648</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -1982,11 +1982,11 @@
       </c>
       <c r="D7" s="4">
         <f>B7/總表!R$2</f>
-        <v>34.53913119429653</v>
+        <v>35.471469534248342</v>
       </c>
       <c r="E7" s="4">
         <f>C7/總表!S$2</f>
-        <v>1.2862561782829274</v>
+        <v>1.1349319220143477</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -1998,11 +1998,11 @@
       </c>
       <c r="D8" s="4">
         <f>B8/總表!R$2</f>
-        <v>45.308081220281828</v>
+        <v>46.531113177677881</v>
       </c>
       <c r="E8" s="4">
         <f>C8/總表!S$2</f>
-        <v>1.3760073050710913</v>
+        <v>1.2141240927097863</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -2014,11 +2014,11 @@
       </c>
       <c r="D9" s="4">
         <f>B9/總表!R$2</f>
-        <v>59.055434262141027</v>
+        <v>60.649557902233923</v>
       </c>
       <c r="E9" s="4">
         <f>C9/總表!S$2</f>
-        <v>1.4220121061684852</v>
+        <v>1.2547165642663103</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -2030,11 +2030,11 @@
       </c>
       <c r="D10" s="4">
         <f>B10/總表!R$2</f>
-        <v>85.607790668467246</v>
+        <v>87.918660185994696</v>
       </c>
       <c r="E10" s="4">
         <f>C10/總表!S$2</f>
-        <v>1.4587013085984282</v>
+        <v>1.2870893899397895</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -2046,11 +2046,11 @@
       </c>
       <c r="D11" s="4">
         <f>B11/總表!R$2</f>
-        <v>85.613875250726437</v>
+        <v>87.924909013535299</v>
       </c>
       <c r="E11" s="4">
         <f>C11/總表!S$2</f>
-        <v>1.1447933677357549</v>
+        <v>1.0101117950609599</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -2062,11 +2062,11 @@
       </c>
       <c r="D12" s="4">
         <f>B12/總表!R$2</f>
-        <v>85.619959832985629</v>
+        <v>87.931157841075901</v>
       </c>
       <c r="E12" s="4">
         <f>C12/總表!S$2</f>
-        <v>0.7990204563764236</v>
+        <v>0.70501804974390314</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -2078,11 +2078,11 @@
       </c>
       <c r="D13" s="4">
         <f>B13/總表!R$2</f>
-        <v>87.259754751837548</v>
+        <v>89.61521686326914</v>
       </c>
       <c r="E13" s="4">
         <f>C13/總表!S$2</f>
-        <v>0.87333349663596604</v>
+        <v>0.77058837938467584</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -2094,11 +2094,11 @@
       </c>
       <c r="D14" s="4">
         <f>B14/總表!R$2</f>
-        <v>89.279836061888886</v>
+        <v>91.689827606750242</v>
       </c>
       <c r="E14" s="4">
         <f>C14/總表!S$2</f>
-        <v>0.92541342783112346</v>
+        <v>0.81654125985099124</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -2110,11 +2110,11 @@
       </c>
       <c r="D15" s="4">
         <f>B15/總表!R$2</f>
-        <v>88.237090777220061</v>
+        <v>90.618934786978926</v>
       </c>
       <c r="E15" s="4">
         <f>C15/總表!S$2</f>
-        <v>0.40532720404119588</v>
+        <v>0.35764165062458458</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -2195,11 +2195,11 @@
       </c>
       <c r="D3" s="4">
         <f>B3/總表!AB$2</f>
-        <v>-2.3581436691311484</v>
+        <v>-2.3481412837557825</v>
       </c>
       <c r="E3" s="4">
         <f>C3/總表!AC$2</f>
-        <v>1.964030606263117</v>
+        <v>2.0157156222174093</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -2211,11 +2211,11 @@
       </c>
       <c r="D4" s="4">
         <f>B4/總表!AB$2</f>
-        <v>-2.4670400597056599</v>
+        <v>-2.4565757755584885</v>
       </c>
       <c r="E4" s="4">
         <f>C4/總表!AC$2</f>
-        <v>2.0233379351177705</v>
+        <v>2.0765836702524489</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -2227,11 +2227,11 @@
       </c>
       <c r="D5" s="4">
         <f>B5/總表!AB$2</f>
-        <v>-2.8681162024554459</v>
+        <v>-2.8559506995923991</v>
       </c>
       <c r="E5" s="4">
         <f>C5/總表!AC$2</f>
-        <v>2.1654473403444601</v>
+        <v>2.2224327966693145</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -2243,11 +2243,11 @@
       </c>
       <c r="D6" s="4">
         <f>B6/總表!AB$2</f>
-        <v>-7.6334836040752689</v>
+        <v>-7.6011051507333534</v>
       </c>
       <c r="E6" s="4">
         <f>C6/總表!AC$2</f>
-        <v>3.1962961497426523</v>
+        <v>3.2804092063148271</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -2259,11 +2259,11 @@
       </c>
       <c r="D7" s="4">
         <f>B7/總表!AB$2</f>
-        <v>-7.8489757572544079</v>
+        <v>-7.8156832647936367</v>
       </c>
       <c r="E7" s="4">
         <f>C7/總表!AC$2</f>
-        <v>3.3257198715017648</v>
+        <v>3.4132388154886537</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -2275,11 +2275,11 @@
       </c>
       <c r="D8" s="4">
         <f>B8/總表!AB$2</f>
-        <v>-7.8873195567524759</v>
+        <v>-7.8538644238790969</v>
       </c>
       <c r="E8" s="4">
         <f>C8/總表!AC$2</f>
-        <v>3.363620842273106</v>
+        <v>3.4521371802276613</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -2291,11 +2291,11 @@
       </c>
       <c r="D9" s="4">
         <f>B9/總表!AB$2</f>
-        <v>-8.0844066861725423</v>
+        <v>-8.0501155815783605</v>
       </c>
       <c r="E9" s="4">
         <f>C9/總表!AC$2</f>
-        <v>3.4243028443131327</v>
+        <v>3.5144160770582151</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -2307,11 +2307,11 @@
       </c>
       <c r="D10" s="4">
         <f>B10/總表!AB$2</f>
-        <v>-11.593631216235675</v>
+        <v>-11.54445526107965</v>
       </c>
       <c r="E10" s="4">
         <f>C10/總表!AC$2</f>
-        <v>3.8618856471222727</v>
+        <v>3.963514216783385</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -2323,11 +2323,11 @@
       </c>
       <c r="D11" s="4">
         <f>B11/總表!AB$2</f>
-        <v>-12.416489153464202</v>
+        <v>-12.363822935053618</v>
       </c>
       <c r="E11" s="4">
         <f>C11/總表!AC$2</f>
-        <v>3.8966679563387383</v>
+        <v>3.9992118499266001</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -2339,11 +2339,11 @@
       </c>
       <c r="D12" s="4">
         <f>B12/總表!AB$2</f>
-        <v>-14.011591212583809</v>
+        <v>-13.952159153008749</v>
       </c>
       <c r="E12" s="4">
         <f>C12/總表!AC$2</f>
-        <v>3.9346971615490136</v>
+        <v>4.0382418236950404</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -2355,11 +2355,11 @@
       </c>
       <c r="D13" s="4">
         <f>B13/總表!AB$2</f>
-        <v>-22.612105440000338</v>
+        <v>-22.516193135877401</v>
       </c>
       <c r="E13" s="4">
         <f>C13/總表!AC$2</f>
-        <v>4.0165862087158386</v>
+        <v>4.1222858457873084</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -2371,11 +2371,11 @@
       </c>
       <c r="D14" s="4">
         <f>B14/總表!AB$2</f>
-        <v>-23.324533234674433</v>
+        <v>-23.225599071685245</v>
       </c>
       <c r="E14" s="4">
         <f>C14/總表!AC$2</f>
-        <v>4.0454895184833459</v>
+        <v>4.1519497689697493</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
@@ -2387,11 +2387,11 @@
       </c>
       <c r="D15" s="4">
         <f>B15/總表!AB$2</f>
-        <v>-23.324533234674433</v>
+        <v>-23.225599071685245</v>
       </c>
       <c r="E15" s="4">
         <f>C15/總表!AC$2</f>
-        <v>4.0454895184833459</v>
+        <v>4.1519497689697493</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
@@ -2403,11 +2403,11 @@
       </c>
       <c r="D16" s="4">
         <f>B16/總表!AB$2</f>
-        <v>-23.324533234674433</v>
+        <v>-23.225599071685245</v>
       </c>
       <c r="E16" s="4">
         <f>C16/總表!AC$2</f>
-        <v>4.0454895184833459</v>
+        <v>4.1519497689697493</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">

--- a/Models/MidSeismic 12Floor 9M/PF M.xlsx
+++ b/Models/MidSeismic 12Floor 9M/PF M.xlsx
@@ -585,7 +585,7 @@
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,7 @@
         <v>291.60000000000002</v>
       </c>
       <c r="C2" s="2">
-        <v>78.965000000000003</v>
+        <v>78.975999999999999</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -699,7 +699,7 @@
       </c>
       <c r="H2" s="5">
         <f>F14/G14</f>
-        <v>1.3189448529008097</v>
+        <v>1.3190531844346944</v>
       </c>
       <c r="I2" s="8">
         <f>D14*B14</f>
@@ -716,7 +716,7 @@
         <v>291.60000000000002</v>
       </c>
       <c r="M2" s="2">
-        <v>74.742999999999995</v>
+        <v>74.751999999999995</v>
       </c>
       <c r="O2" s="1">
         <v>1</v>
@@ -731,7 +731,7 @@
       </c>
       <c r="R2" s="5">
         <f>P14/Q14</f>
-        <v>1.2802401647372939</v>
+        <v>1.2803639309023467</v>
       </c>
       <c r="S2" s="8">
         <f>N14*L14</f>
@@ -744,7 +744,7 @@
         <v>291.60000000000002</v>
       </c>
       <c r="W2" s="2">
-        <v>75.718000000000004</v>
+        <v>75.718999999999994</v>
       </c>
       <c r="Y2" s="1">
         <v>1</v>
@@ -759,7 +759,7 @@
       </c>
       <c r="AB2" s="5">
         <f>Z14/AA14</f>
-        <v>1.3095464149762013</v>
+        <v>1.3095652618935416</v>
       </c>
       <c r="AC2" s="8">
         <f>X14*V14</f>
@@ -774,19 +774,19 @@
         <v>291.60000000000002</v>
       </c>
       <c r="C3" s="2">
-        <v>76.713999999999999</v>
+        <v>76.722999999999999</v>
       </c>
       <c r="E3" s="1">
         <f>C3/C$2</f>
-        <v>0.97149369974039124</v>
+        <v>0.97147234602917343</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F5" si="0">B3*E3</f>
-        <v>283.28756284429812</v>
+        <v>283.28133610210699</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G5" si="1">B3*E3^2</f>
-        <v>275.21208251804575</v>
+        <v>275.19998416939268</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>17</v>
@@ -795,19 +795,19 @@
         <v>291.60000000000002</v>
       </c>
       <c r="M3" s="2">
-        <v>59.99</v>
+        <v>59.988</v>
       </c>
       <c r="O3" s="1">
         <f>M3/M$2</f>
-        <v>0.80261696747521516</v>
+        <v>0.80249357876712335</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P13" si="2">L3*O3</f>
-        <v>234.04310771577275</v>
+        <v>234.00712756849319</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" ref="Q3:Q13" si="3">L3*O3^2</f>
-        <v>187.84696937330867</v>
+        <v>187.78921725945486</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>17</v>
@@ -816,19 +816,19 @@
         <v>291.60000000000002</v>
       </c>
       <c r="W3" s="2">
-        <v>37.485999999999997</v>
+        <v>37.470999999999997</v>
       </c>
       <c r="Y3" s="1">
         <f>W3/W$2</f>
-        <v>0.49507382656699855</v>
+        <v>0.49486918739021907</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" ref="Z3:Z13" si="4">V3*Y3</f>
-        <v>144.3635278269368</v>
+        <v>144.30385504298789</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" ref="AA3:AA13" si="5">V3*Y3^2</f>
-        <v>71.470604137992979</v>
+        <v>71.411531482399383</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -839,19 +839,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="C4" s="2">
-        <v>73.09</v>
+        <v>73.096000000000004</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E13" si="6">C4/C$2</f>
-        <v>0.9255999493446464</v>
+        <v>0.92554700162074555</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>269.90494522889878</v>
+        <v>269.88950567260929</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="1"/>
-        <v>249.82400363173829</v>
+        <v>249.79542274418873</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>18</v>
@@ -860,19 +860,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="M4" s="2">
-        <v>36.56</v>
+        <v>36.545000000000002</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" ref="O4:O13" si="7">M4/M$2</f>
-        <v>0.48914279598089461</v>
+        <v>0.48888324058219185</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="2"/>
-        <v>142.63403930802883</v>
+        <v>142.5583529537671</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="3"/>
-        <v>69.768412789178043</v>
+        <v>69.694389564097548</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>18</v>
@@ -881,19 +881,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="W4" s="2">
-        <v>14.557</v>
+        <v>14.583</v>
       </c>
       <c r="Y4" s="1">
         <f t="shared" ref="Y4:Y13" si="8">W4/W$2</f>
-        <v>0.19225283287989645</v>
+        <v>0.19259366869610006</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="4"/>
-        <v>56.060926067777785</v>
+        <v>56.160313791782762</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="5"/>
-        <v>10.777871850400714</v>
+        <v>10.816120868283628</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -904,19 +904,19 @@
         <v>291.60000000000014</v>
       </c>
       <c r="C5" s="2">
-        <v>68.033000000000001</v>
+        <v>68.034000000000006</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="6"/>
-        <v>0.86155891850819977</v>
+        <v>0.86145158022690449</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>251.23058063699116</v>
+        <v>251.19928079416547</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>216.44994734979318</v>
+        <v>216.39601739199574</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>19</v>
@@ -925,19 +925,19 @@
         <v>291.60000000000014</v>
       </c>
       <c r="M5" s="2">
-        <v>7.2910000000000004</v>
+        <v>7.2649999999999997</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="7"/>
-        <v>9.7547596430434966E-2</v>
+        <v>9.7188035102739725E-2</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="2"/>
-        <v>28.444879119114848</v>
+        <v>28.340031035958916</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="3"/>
-        <v>2.7747295888239218</v>
+        <v>2.7543119311355087</v>
       </c>
       <c r="U5" s="9" t="s">
         <v>19</v>
@@ -946,19 +946,19 @@
         <v>291.60000000000014</v>
       </c>
       <c r="W5" s="2">
-        <v>59.697000000000003</v>
+        <v>59.716000000000001</v>
       </c>
       <c r="Y5" s="1">
         <f t="shared" si="8"/>
-        <v>0.78841226656805519</v>
+        <v>0.78865278199659272</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="4"/>
-        <v>229.90101693124501</v>
+        <v>229.97115123020654</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="5"/>
-        <v>181.2567818450637</v>
+        <v>181.36738819666155</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -969,19 +969,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="C6" s="2">
-        <v>61.619</v>
+        <v>61.616</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="6"/>
-        <v>0.7803330589501678</v>
+        <v>0.78018638573743926</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ref="F6:F13" si="9">B6*E6</f>
-        <v>227.54511998986885</v>
+        <v>227.50235008103721</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" ref="G6:G13" si="10">B6*E6^2</f>
-        <v>177.56097953087732</v>
+        <v>177.49423625649803</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>20</v>
@@ -990,19 +990,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="M6" s="2">
-        <v>23.161000000000001</v>
+        <v>23.19</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="7"/>
-        <v>0.30987517225693378</v>
+        <v>0.31022581335616439</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="2"/>
-        <v>90.359600230121856</v>
+        <v>90.461847174657507</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="3"/>
-        <v>28.000196686376686</v>
+        <v>28.063600117459167</v>
       </c>
       <c r="U6" s="9" t="s">
         <v>20</v>
@@ -1011,19 +1011,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="W6" s="2">
-        <v>77.882999999999996</v>
+        <v>77.881</v>
       </c>
       <c r="Y6" s="1">
         <f t="shared" si="8"/>
-        <v>1.0285929369502627</v>
+        <v>1.0285529391566186</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="4"/>
-        <v>299.93770041469651</v>
+        <v>299.92603705806988</v>
       </c>
       <c r="AA6" s="4">
         <f t="shared" si="5"/>
-        <v>308.51380017166071</v>
+        <v>308.48980694567467</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1034,19 +1034,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="C7" s="2">
-        <v>53.984000000000002</v>
+        <v>53.976999999999997</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="6"/>
-        <v>0.68364465269423158</v>
+        <v>0.68346079821717987</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="9"/>
-        <v>199.35078072563786</v>
+        <v>199.29716876012958</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="10"/>
-        <v>136.28509525350262</v>
+        <v>136.21180204322218</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>21</v>
@@ -1055,19 +1055,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="M7" s="2">
-        <v>49.764000000000003</v>
+        <v>49.786999999999999</v>
       </c>
       <c r="O7" s="1">
         <f>M7/M$2</f>
-        <v>0.66580147973723303</v>
+        <v>0.66602900256849318</v>
       </c>
       <c r="P7" s="4">
         <f>L7*O7</f>
-        <v>194.14771149137709</v>
+        <v>194.21405714897256</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="3"/>
-        <v>129.26383359855626</v>
+        <v>129.35219476771053</v>
       </c>
       <c r="U7" s="9" t="s">
         <v>21</v>
@@ -1076,19 +1076,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="W7" s="2">
-        <v>60.832999999999998</v>
+        <v>60.807000000000002</v>
       </c>
       <c r="Y7" s="1">
         <f t="shared" si="8"/>
-        <v>0.80341530415489049</v>
+        <v>0.80306131882354503</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="4"/>
-        <v>234.27590269156599</v>
+        <v>234.17268056894565</v>
       </c>
       <c r="AA7" s="4">
         <f t="shared" si="5"/>
-        <v>188.22084561710602</v>
+        <v>188.05502169014224</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1099,19 +1099,19 @@
         <v>291.60000000000014</v>
       </c>
       <c r="C8" s="2">
-        <v>45.354999999999997</v>
+        <v>45.345999999999997</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="6"/>
-        <v>0.57436839105933002</v>
+        <v>0.57417443273905988</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="9"/>
-        <v>167.48582283290071</v>
+        <v>167.42926458670993</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="10"/>
-        <v>96.198562585781175</v>
+        <v>96.133603017992158</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>22</v>
@@ -1120,19 +1120,19 @@
         <v>291.60000000000014</v>
       </c>
       <c r="M8" s="2">
-        <v>67.988</v>
+        <v>67.998000000000005</v>
       </c>
       <c r="O8" s="1">
         <f>M8/M$2</f>
-        <v>0.90962364368569637</v>
+        <v>0.90964790239726034</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="2"/>
-        <v>265.24625449874918</v>
+        <v>265.25332833904122</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="3"/>
-        <v>241.27426449113577</v>
+        <v>241.28713372750065</v>
       </c>
       <c r="U8" s="9" t="s">
         <v>22</v>
@@ -1141,19 +1141,19 @@
         <v>291.60000000000014</v>
       </c>
       <c r="W8" s="2">
-        <v>16.47</v>
+        <v>16.436</v>
       </c>
       <c r="Y8" s="1">
         <f t="shared" si="8"/>
-        <v>0.21751763121054438</v>
+        <v>0.21706572986964964</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="4"/>
-        <v>63.428141260994771</v>
+        <v>63.296366829989864</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="5"/>
-        <v>13.796739039179373</v>
+        <v>13.739472064048831</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1164,19 +1164,19 @@
         <v>291.60000000000014</v>
       </c>
       <c r="C9" s="2">
-        <v>36.386000000000003</v>
+        <v>36.374000000000002</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="6"/>
-        <v>0.4607864243652251</v>
+        <v>0.46057029983792547</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="9"/>
-        <v>134.36532134489971</v>
+        <v>134.30229943273912</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="10"/>
-        <v>61.913715981200788</v>
+        <v>61.855650318659507</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>23</v>
@@ -1185,19 +1185,19 @@
         <v>291.60000000000014</v>
       </c>
       <c r="M9" s="2">
-        <v>74.353999999999999</v>
+        <v>74.349999999999994</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="7"/>
-        <v>0.9947954992440764</v>
+        <v>0.99462221746575341</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="2"/>
-        <v>290.0823675795728</v>
+        <v>290.0318386130138</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="3"/>
-        <v>288.5726336782248</v>
+        <v>288.4721104569453</v>
       </c>
       <c r="U9" s="9" t="s">
         <v>23</v>
@@ -1206,19 +1206,19 @@
         <v>291.60000000000014</v>
       </c>
       <c r="W9" s="2">
-        <v>32.262</v>
+        <v>32.29</v>
       </c>
       <c r="Y9" s="1">
         <f t="shared" si="8"/>
-        <v>0.42608098470641059</v>
+        <v>0.42644514586827614</v>
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="4"/>
-        <v>124.24521514038939</v>
+        <v>124.35140453518939</v>
       </c>
       <c r="AA9" s="4">
         <f t="shared" si="5"/>
-        <v>52.938523612076942</v>
+        <v>53.029052845933847</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1229,19 +1229,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="C10" s="2">
-        <v>28.69</v>
+        <v>28.678000000000001</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="6"/>
-        <v>0.36332552396631418</v>
+        <v>0.36312297406807131</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="9"/>
-        <v>105.94572278857719</v>
+        <v>105.88665923824956</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="10"/>
-        <v>38.49278524414968</v>
+        <v>38.449878616725599</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>24</v>
@@ -1250,19 +1250,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="M10" s="2">
-        <v>69.661000000000001</v>
+        <v>69.649000000000001</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="7"/>
-        <v>0.93200701068996439</v>
+        <v>0.93173426797945214</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="2"/>
-        <v>271.77324431719353</v>
+        <v>271.69371254280816</v>
       </c>
       <c r="Q10" s="4">
         <f t="shared" si="3"/>
-        <v>253.29456902158091</v>
+        <v>253.14634237069305</v>
       </c>
       <c r="U10" s="9" t="s">
         <v>24</v>
@@ -1271,19 +1271,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="W10" s="2">
-        <v>59.18</v>
+        <v>59.194000000000003</v>
       </c>
       <c r="Y10" s="1">
         <f t="shared" si="8"/>
-        <v>0.78158429963813092</v>
+        <v>0.78175887161742774</v>
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="4"/>
-        <v>227.90998177447889</v>
+        <v>227.96088696364185</v>
       </c>
       <c r="AA10" s="4">
         <f t="shared" si="5"/>
-        <v>178.13086348574527</v>
+        <v>178.21044576560465</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1294,19 +1294,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="C11" s="2">
-        <v>20.782</v>
+        <v>20.773</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="6"/>
-        <v>0.26317988982460583</v>
+        <v>0.26302927471636955</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" si="9"/>
-        <v>76.74325587285503</v>
+        <v>76.699336507293339</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="10"/>
-        <v>20.197281625399523</v>
+        <v>20.174170852740133</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>25</v>
@@ -1315,19 +1315,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="M11" s="2">
-        <v>57.241</v>
+        <v>57.228000000000002</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="7"/>
-        <v>0.76583760352140007</v>
+        <v>0.76557148972602751</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="2"/>
-        <v>223.31824518684019</v>
+        <v>223.24064640410955</v>
       </c>
       <c r="Q11" s="4">
         <f>L11*O11^2</f>
-        <v>171.02550971649413</v>
+        <v>170.90667423499551</v>
       </c>
       <c r="U11" s="9" t="s">
         <v>25</v>
@@ -1336,19 +1336,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="W11" s="2">
-        <v>67.198999999999998</v>
+        <v>67.197999999999993</v>
       </c>
       <c r="Y11" s="1">
         <f t="shared" si="8"/>
-        <v>0.88749042499801889</v>
+        <v>0.88746549743129199</v>
       </c>
       <c r="Z11" s="4">
         <f t="shared" si="4"/>
-        <v>258.7922079294222</v>
+        <v>258.78493905096468</v>
       </c>
       <c r="AA11" s="4">
         <f t="shared" si="5"/>
-        <v>229.67560660145861</v>
+        <v>229.66270466259095</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -1359,19 +1359,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="C12" s="2">
-        <v>12.802</v>
+        <v>12.797000000000001</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="6"/>
-        <v>0.16212245931741909</v>
+        <v>0.16203656807131281</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" si="9"/>
-        <v>47.274909136959394</v>
+        <v>47.249863249594803</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="10"/>
-        <v>7.6643245332913823</v>
+        <v>7.6562056828031899</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>26</v>
@@ -1380,19 +1380,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="M12" s="2">
-        <v>38.457999999999998</v>
+        <v>38.451000000000001</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="7"/>
-        <v>0.51453647833241911</v>
+        <v>0.51438088613013699</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="2"/>
-        <v>150.03883708173336</v>
+        <v>149.9934663955479</v>
       </c>
       <c r="Q12" s="4">
         <f t="shared" si="3"/>
-        <v>77.200454845126657</v>
+        <v>77.153772158272844</v>
       </c>
       <c r="U12" s="9" t="s">
         <v>26</v>
@@ -1401,19 +1401,19 @@
         <v>291.59999999999991</v>
       </c>
       <c r="W12" s="2">
-        <v>54.167000000000002</v>
+        <v>54.161999999999999</v>
       </c>
       <c r="Y12" s="1">
         <f t="shared" si="8"/>
-        <v>0.71537811352650627</v>
+        <v>0.71530263210026546</v>
       </c>
       <c r="Z12" s="4">
         <f t="shared" si="4"/>
-        <v>208.60425790432916</v>
+        <v>208.58224752043733</v>
       </c>
       <c r="AA12" s="4">
         <f t="shared" si="5"/>
-        <v>149.23092049319578</v>
+        <v>149.19943066075788</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -1428,15 +1428,15 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="6"/>
-        <v>6.7181662761983146E-2</v>
+        <v>6.7172305510534838E-2</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="9"/>
-        <v>19.590172861394279</v>
+        <v>19.587444286871953</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="10"/>
-        <v>1.3161003866231449</v>
+        <v>1.3157337918083432</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>27</v>
@@ -1449,15 +1449,15 @@
       </c>
       <c r="O13" s="1">
         <f t="shared" si="7"/>
-        <v>0.22511807125750907</v>
+        <v>0.22509096746575344</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="2"/>
-        <v>65.644429578689625</v>
+        <v>65.636526113013687</v>
       </c>
       <c r="Q13" s="4">
         <f t="shared" si="3"/>
-        <v>14.777747375553988</v>
+        <v>14.774189163869439</v>
       </c>
       <c r="U13" s="9" t="s">
         <v>27</v>
@@ -1470,15 +1470,15 @@
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="8"/>
-        <v>0.34582265775641191</v>
+        <v>0.34581809057171914</v>
       </c>
       <c r="Z13" s="4">
         <f t="shared" si="4"/>
-        <v>100.84188700176968</v>
+        <v>100.84055521071328</v>
       </c>
       <c r="AA13" s="4">
         <f t="shared" si="5"/>
-        <v>34.87340937612376</v>
+        <v>34.872488255160889</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -1494,11 +1494,11 @@
       </c>
       <c r="F14" s="4">
         <f>SUM(F2:F13)</f>
-        <v>2074.3241942632812</v>
+        <v>2073.9245087115073</v>
       </c>
       <c r="G14" s="4">
         <f>SUM(G2:G13)</f>
-        <v>1572.7148786404032</v>
+        <v>1572.2827048860258</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>28</v>
@@ -1512,11 +1512,11 @@
       </c>
       <c r="P14" s="4">
         <f>SUM(P2:P13)</f>
-        <v>2247.3327161071938</v>
+        <v>2247.0309342893834</v>
       </c>
       <c r="Q14" s="4">
         <f>SUM(Q2:Q13)</f>
-        <v>1755.3993211643599</v>
+        <v>1754.9939357521346</v>
       </c>
       <c r="U14" s="9" t="s">
         <v>28</v>
@@ -1530,11 +1530,11 @@
       </c>
       <c r="Z14" s="4">
         <f>SUM(Z2:Z13)</f>
-        <v>2239.9607649436057</v>
+        <v>2239.9504378029292</v>
       </c>
       <c r="AA14" s="4">
         <f>SUM(AA2:AA13)</f>
-        <v>1710.4859662300041</v>
+        <v>1710.4534634372587</v>
       </c>
     </row>
   </sheetData>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D3" s="4">
         <f>B3/總表!H$2</f>
-        <v>29.956521618854524</v>
+        <v>29.954061342062715</v>
       </c>
       <c r="E3" s="4">
         <f>C3/總表!I$2</f>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D4" s="4">
         <f>B4/總表!H$2</f>
-        <v>90.260786672142245</v>
+        <v>90.253373711402503</v>
       </c>
       <c r="E4" s="4">
         <f>C4/總表!I$2</f>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="D5" s="4">
         <f>B5/總表!H$2</f>
-        <v>98.442326617703202</v>
+        <v>98.434241721379436</v>
       </c>
       <c r="E5" s="4">
         <f>C5/總表!I$2</f>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D6" s="4">
         <f>B6/總表!H$2</f>
-        <v>153.46358079705254</v>
+        <v>153.45097710123545</v>
       </c>
       <c r="E6" s="4">
         <f>C6/總表!I$2</f>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D7" s="4">
         <f>B7/總表!H$2</f>
-        <v>93.394352105837299</v>
+        <v>93.386681790842275</v>
       </c>
       <c r="E7" s="4">
         <f>C7/總表!I$2</f>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="D2" s="4">
         <f>B2/總表!H$2</f>
-        <v>29.785172529085564</v>
+        <v>29.782726324895183</v>
       </c>
       <c r="E2" s="4">
         <f>C2/總表!I$2</f>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D3" s="4">
         <f>B3/總表!H$2</f>
-        <v>89.207672133694984</v>
+        <v>89.200345663412691</v>
       </c>
       <c r="E3" s="4">
         <f>C3/總表!I$2</f>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="D4" s="4">
         <f>B4/總表!H$2</f>
-        <v>97.402101170079277</v>
+        <v>97.394101705654435</v>
       </c>
       <c r="E4" s="4">
         <f>C4/總表!I$2</f>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="D5" s="4">
         <f>B5/總表!H$2</f>
-        <v>151.69019353612521</v>
+        <v>151.67773548550605</v>
       </c>
       <c r="E5" s="4">
         <f>C5/總表!I$2</f>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="D6" s="4">
         <f>B6/總表!H$2</f>
-        <v>92.01901029680684</v>
+        <v>92.011452936232118</v>
       </c>
       <c r="E6" s="4">
         <f>C6/總表!I$2</f>
@@ -1918,7 +1918,7 @@
       </c>
       <c r="D3" s="4">
         <f>B3/總表!R$2</f>
-        <v>6.8018487779493215</v>
+        <v>6.8011912783758035</v>
       </c>
       <c r="E3" s="4">
         <f>C3/總表!S$2</f>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="D4" s="4">
         <f>B4/總表!R$2</f>
-        <v>7.1431909823549082</v>
+        <v>7.1425004869943409</v>
       </c>
       <c r="E4" s="4">
         <f>C4/總表!S$2</f>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="D5" s="4">
         <f>B5/總表!R$2</f>
-        <v>7.9711606314851657</v>
+        <v>7.9703901005770641</v>
       </c>
       <c r="E5" s="4">
         <f>C5/總表!S$2</f>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="D6" s="4">
         <f>B6/總表!R$2</f>
-        <v>32.894609277191059</v>
+        <v>32.891429525291713</v>
       </c>
       <c r="E6" s="4">
         <f>C6/總表!S$2</f>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="D7" s="4">
         <f>B7/總表!R$2</f>
-        <v>35.471469534248342</v>
+        <v>35.468040690583599</v>
       </c>
       <c r="E7" s="4">
         <f>C7/總表!S$2</f>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="D8" s="4">
         <f>B8/總表!R$2</f>
-        <v>46.531113177677881</v>
+        <v>46.526615255411684</v>
       </c>
       <c r="E8" s="4">
         <f>C8/總表!S$2</f>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="D9" s="4">
         <f>B9/總表!R$2</f>
-        <v>60.649557902233923</v>
+        <v>60.643695222871798</v>
       </c>
       <c r="E9" s="4">
         <f>C9/總表!S$2</f>
@@ -2030,7 +2030,7 @@
       </c>
       <c r="D10" s="4">
         <f>B10/總表!R$2</f>
-        <v>87.918660185994696</v>
+        <v>87.910161543425048</v>
       </c>
       <c r="E10" s="4">
         <f>C10/總表!S$2</f>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="D11" s="4">
         <f>B11/總表!R$2</f>
-        <v>87.924909013535299</v>
+        <v>87.916409766923778</v>
       </c>
       <c r="E11" s="4">
         <f>C11/總表!S$2</f>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="D12" s="4">
         <f>B12/總表!R$2</f>
-        <v>87.931157841075901</v>
+        <v>87.922657990422522</v>
       </c>
       <c r="E12" s="4">
         <f>C12/總表!S$2</f>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="D13" s="4">
         <f>B13/總表!R$2</f>
-        <v>89.61521686326914</v>
+        <v>89.606554223332282</v>
       </c>
       <c r="E13" s="4">
         <f>C13/總表!S$2</f>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="D14" s="4">
         <f>B14/總表!R$2</f>
-        <v>91.689827606750242</v>
+        <v>91.680964424913157</v>
       </c>
       <c r="E14" s="4">
         <f>C14/總表!S$2</f>
@@ -2110,7 +2110,7 @@
       </c>
       <c r="D15" s="4">
         <f>B15/總表!R$2</f>
-        <v>90.618934786978926</v>
+        <v>90.610175122816997</v>
       </c>
       <c r="E15" s="4">
         <f>C15/總表!S$2</f>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="D3" s="4">
         <f>B3/總表!AB$2</f>
-        <v>-2.3481412837557825</v>
+        <v>-2.3481074899266652</v>
       </c>
       <c r="E3" s="4">
         <f>C3/總表!AC$2</f>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D4" s="4">
         <f>B4/總表!AB$2</f>
-        <v>-2.4565757755584885</v>
+        <v>-2.4565404211688073</v>
       </c>
       <c r="E4" s="4">
         <f>C4/總表!AC$2</f>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="D5" s="4">
         <f>B5/總表!AB$2</f>
-        <v>-2.8559506995923991</v>
+        <v>-2.8559095975043021</v>
       </c>
       <c r="E5" s="4">
         <f>C5/總表!AC$2</f>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="D6" s="4">
         <f>B6/總表!AB$2</f>
-        <v>-7.6011051507333534</v>
+        <v>-7.6009957576357809</v>
       </c>
       <c r="E6" s="4">
         <f>C6/總表!AC$2</f>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="D7" s="4">
         <f>B7/總表!AB$2</f>
-        <v>-7.8156832647936367</v>
+        <v>-7.8155707835445263</v>
       </c>
       <c r="E7" s="4">
         <f>C7/總表!AC$2</f>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="D8" s="4">
         <f>B8/總表!AB$2</f>
-        <v>-7.8538644238790969</v>
+        <v>-7.8537513931368297</v>
       </c>
       <c r="E8" s="4">
         <f>C8/總表!AC$2</f>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="D9" s="4">
         <f>B9/總表!AB$2</f>
-        <v>-8.0501155815783605</v>
+        <v>-8.0499997264412695</v>
       </c>
       <c r="E9" s="4">
         <f>C9/總表!AC$2</f>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="D10" s="4">
         <f>B10/總表!AB$2</f>
-        <v>-11.54445526107965</v>
+        <v>-11.544289116328887</v>
       </c>
       <c r="E10" s="4">
         <f>C10/總表!AC$2</f>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="D11" s="4">
         <f>B11/總表!AB$2</f>
-        <v>-12.363822935053618</v>
+        <v>-12.363644998179719</v>
       </c>
       <c r="E11" s="4">
         <f>C11/總表!AC$2</f>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="D12" s="4">
         <f>B12/總表!AB$2</f>
-        <v>-13.952159153008749</v>
+        <v>-13.951958357219546</v>
       </c>
       <c r="E12" s="4">
         <f>C12/總表!AC$2</f>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="D13" s="4">
         <f>B13/總表!AB$2</f>
-        <v>-22.516193135877401</v>
+        <v>-22.515869088773222</v>
       </c>
       <c r="E13" s="4">
         <f>C13/總表!AC$2</f>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D14" s="4">
         <f>B14/總表!AB$2</f>
-        <v>-23.225599071685245</v>
+        <v>-23.225264814998219</v>
       </c>
       <c r="E14" s="4">
         <f>C14/總表!AC$2</f>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D15" s="4">
         <f>B15/總表!AB$2</f>
-        <v>-23.225599071685245</v>
+        <v>-23.225264814998219</v>
       </c>
       <c r="E15" s="4">
         <f>C15/總表!AC$2</f>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="D16" s="4">
         <f>B16/總表!AB$2</f>
-        <v>-23.225599071685245</v>
+        <v>-23.225264814998219</v>
       </c>
       <c r="E16" s="4">
         <f>C16/總表!AC$2</f>
